--- a/va_facility_data_2025-02-20/Durango VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Durango%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Durango VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Durango%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc081ca42fa2b49a6885ee7be496163d8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R61e66a4fc91d4487b23556e802468f9e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf7a5a65406b449efb4b0008aa02ff47e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R25b35281d7304aa4b827e1853f1cb924"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8385f3899c334d5bbe8bda0b1a564fe6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R97949968869e4d51b00f6090e904fbc2"/>
   </x:sheets>
 </x:workbook>
 </file>
